--- a/Wyniki 3/S1-REST.xlsx
+++ b/Wyniki 3/S1-REST.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573B1495-9FAE-484C-943A-D38447B051F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF2902-A652-481A-B816-4C48456FEA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
     <sheet name="100 rekordów" sheetId="2" r:id="rId2"/>
     <sheet name="500 rekordów" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -105,6 +116,12 @@
   </si>
   <si>
     <t>982,22 µs</t>
+  </si>
+  <si>
+    <t>Pobieranie REST - 100 rekord</t>
+  </si>
+  <si>
+    <t>Pobieranie REST - 500 rekord</t>
   </si>
 </sst>
 </file>
@@ -457,14 +474,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="33.7265625" customWidth="1"/>
     <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:9" x14ac:dyDescent="0.35">
@@ -964,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,7 +994,7 @@
   <sheetData>
     <row r="7" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1411,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,7 +1441,7 @@
   <sheetData>
     <row r="7" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>

--- a/Wyniki 3/S1-REST.xlsx
+++ b/Wyniki 3/S1-REST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF2902-A652-481A-B816-4C48456FEA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAB54A-A2EA-4A5C-873F-B10CD344212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
